--- a/ConceptMap-R5-ArtifactAssessment-elements-for-R4.xlsx
+++ b/ConceptMap-R5-ArtifactAssessment-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:31.0329228-06:00</t>
+    <t>2026-02-09T22:05:43.4706124-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,9 +237,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>informationType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content:informationType</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:informationType</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>summary</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content:summary</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:summary</t>
   </si>
   <si>
@@ -273,9 +264,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content:type</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:type</t>
   </si>
   <si>
@@ -285,9 +273,6 @@
     <t>classifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content:classifier</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:classifier</t>
   </si>
   <si>
@@ -297,9 +282,6 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content:quantity</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:quantity</t>
   </si>
   <si>
@@ -309,9 +291,6 @@
     <t>author</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content:author</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:author</t>
   </si>
   <si>
@@ -321,9 +300,6 @@
     <t>path</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content:path</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:path</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>relatedArtifact</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content:relatedArtifact</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:relatedArtifact</t>
   </si>
   <si>
@@ -345,9 +318,6 @@
     <t>freeToShare</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content:freeToShare</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:freeToShare</t>
   </si>
   <si>
@@ -355,9 +325,6 @@
   </si>
   <si>
     <t>component</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:content:component</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:component</t>
@@ -635,7 +602,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -870,302 +837,159 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="E40" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-ArtifactAssessment-elements-for-R4.xlsx
+++ b/ConceptMap-R5-ArtifactAssessment-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.4706124-06:00</t>
+    <t>2026-02-17T14:42:26.9859779-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,7 +174,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:title</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.title</t>
   </si>
   <si>
     <t>ArtifactAssessment.citeAs[x]</t>
@@ -183,7 +183,7 @@
     <t>citeAs[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:citeAs</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.citeAs</t>
   </si>
   <si>
     <t>ArtifactAssessment.date</t>
@@ -192,7 +192,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:date</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.date</t>
   </si>
   <si>
     <t>ArtifactAssessment.copyright</t>
@@ -201,7 +201,7 @@
     <t>copyright</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:copyright</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.copyright</t>
   </si>
   <si>
     <t>ArtifactAssessment.approvalDate</t>
@@ -210,7 +210,7 @@
     <t>approvalDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:approvalDate</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.approvalDate</t>
   </si>
   <si>
     <t>ArtifactAssessment.lastReviewDate</t>
@@ -219,7 +219,7 @@
     <t>lastReviewDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:lastReviewDate</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.lastReviewDate</t>
   </si>
   <si>
     <t>ArtifactAssessment.artifact[x]</t>
@@ -228,7 +228,7 @@
     <t>artifact[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:artifact</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.artifact</t>
   </si>
   <si>
     <t>ArtifactAssessment.content</t>
@@ -246,7 +246,7 @@
     <t>informationType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:informationType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.informationType</t>
   </si>
   <si>
     <t>ArtifactAssessment.content.summary</t>
@@ -255,7 +255,7 @@
     <t>summary</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:summary</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.summary</t>
   </si>
   <si>
     <t>ArtifactAssessment.content.type</t>
@@ -264,7 +264,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:type</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.type</t>
   </si>
   <si>
     <t>ArtifactAssessment.content.classifier</t>
@@ -273,7 +273,7 @@
     <t>classifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:classifier</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.classifier</t>
   </si>
   <si>
     <t>ArtifactAssessment.content.quantity</t>
@@ -282,7 +282,7 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:quantity</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.quantity</t>
   </si>
   <si>
     <t>ArtifactAssessment.content.author</t>
@@ -291,7 +291,7 @@
     <t>author</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:author</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.author</t>
   </si>
   <si>
     <t>ArtifactAssessment.content.path</t>
@@ -300,7 +300,7 @@
     <t>path</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:path</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.path</t>
   </si>
   <si>
     <t>ArtifactAssessment.content.relatedArtifact</t>
@@ -309,7 +309,7 @@
     <t>relatedArtifact</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:relatedArtifact</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.relatedArtifact</t>
   </si>
   <si>
     <t>ArtifactAssessment.content.freeToShare</t>
@@ -318,7 +318,7 @@
     <t>freeToShare</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:freeToShare</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.freeToShare</t>
   </si>
   <si>
     <t>ArtifactAssessment.content.component</t>
@@ -327,7 +327,7 @@
     <t>component</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content:component</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content</t>
   </si>
   <si>
     <t>ArtifactAssessment.workflowStatus</t>
@@ -336,7 +336,7 @@
     <t>workflowStatus</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:workflowStatus</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.workflowStatus</t>
   </si>
   <si>
     <t>ArtifactAssessment.disposition</t>
@@ -345,7 +345,7 @@
     <t>disposition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:disposition</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment:http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.disposition</t>
   </si>
 </sst>
 </file>
